--- a/Projeto 2/Testanto Robo.xlsx
+++ b/Projeto 2/Testanto Robo.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf_ga\OneDrive\Documentos\2º Semestre Eng\Ciencia dos Dados\GIT\CienciaDosDados\Projeto 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="871F38F0A4F92DF8473F5D05BEBD96E8C174B57E" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Robo e Comparação" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -584,8 +590,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,11 +654,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -694,7 +708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -726,9 +740,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -760,6 +792,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -935,21 +985,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625"/>
     <col min="2" max="2" width="120.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,7 +1012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -980,7 +1029,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -997,7 +1046,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1014,7 +1063,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1031,7 +1080,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1048,7 +1097,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1065,7 +1114,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1082,7 +1131,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1099,7 +1148,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1116,7 +1165,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1133,7 +1182,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1150,7 +1199,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1167,7 +1216,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1184,7 +1233,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1201,7 +1250,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1218,7 +1267,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1235,7 +1284,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1252,7 +1301,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1269,7 +1318,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1286,7 +1335,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1303,7 +1352,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1320,7 +1369,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1337,7 +1386,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1354,7 +1403,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1371,7 +1420,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1388,7 +1437,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1405,7 +1454,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1422,7 +1471,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1439,7 +1488,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1456,7 +1505,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1473,7 +1522,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1490,7 +1539,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1507,7 +1556,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1524,7 +1573,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1541,7 +1590,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1558,7 +1607,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1575,7 +1624,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1592,7 +1641,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1609,7 +1658,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1626,7 +1675,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1643,7 +1692,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1660,7 +1709,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1677,7 +1726,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1694,7 +1743,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1711,7 +1760,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1728,7 +1777,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1745,7 +1794,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1762,7 +1811,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1779,7 +1828,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1796,7 +1845,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1813,7 +1862,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1830,7 +1879,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1847,7 +1896,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1864,7 +1913,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1881,7 +1930,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1898,7 +1947,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1915,7 +1964,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1932,7 +1981,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1949,7 +1998,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1966,7 +2015,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1983,7 +2032,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2000,7 +2049,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2017,7 +2066,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2034,7 +2083,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2051,7 +2100,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2068,7 +2117,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2085,7 +2134,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2102,7 +2151,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2119,7 +2168,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2136,7 +2185,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2153,7 +2202,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2170,7 +2219,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2187,7 +2236,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2204,7 +2253,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2221,7 +2270,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2238,7 +2287,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2255,7 +2304,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2272,7 +2321,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2289,7 +2338,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2306,7 +2355,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2323,7 +2372,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2340,7 +2389,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2357,7 +2406,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2374,7 +2423,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2391,7 +2440,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2408,7 +2457,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2425,7 +2474,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2442,7 +2491,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2459,7 +2508,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2476,7 +2525,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2493,7 +2542,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2510,7 +2559,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2527,7 +2576,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2544,7 +2593,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2561,7 +2610,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2578,7 +2627,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2595,7 +2644,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2612,7 +2661,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2629,7 +2678,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2646,7 +2695,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2663,7 +2712,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2680,7 +2729,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2697,7 +2746,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2714,7 +2763,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2731,7 +2780,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2748,7 +2797,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2765,7 +2814,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2782,7 +2831,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2799,7 +2848,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2816,7 +2865,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2833,7 +2882,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2850,7 +2899,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2867,7 +2916,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2884,7 +2933,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2901,7 +2950,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2918,7 +2967,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2935,7 +2984,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2952,7 +3001,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2969,7 +3018,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2986,7 +3035,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3003,7 +3052,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3020,7 +3069,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3037,7 +3086,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3054,7 +3103,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3071,7 +3120,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3088,7 +3137,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3105,7 +3154,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3122,7 +3171,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3139,7 +3188,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3156,7 +3205,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3173,7 +3222,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3190,7 +3239,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3207,7 +3256,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3224,7 +3273,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3241,7 +3290,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3258,7 +3307,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3275,7 +3324,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3292,7 +3341,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3309,7 +3358,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3326,7 +3375,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3343,7 +3392,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3360,7 +3409,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3377,7 +3426,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3394,7 +3443,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3411,7 +3460,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3428,7 +3477,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3445,7 +3494,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3462,7 +3511,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3479,7 +3528,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3496,7 +3545,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3513,7 +3562,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3530,7 +3579,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3547,7 +3596,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3564,7 +3613,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3581,7 +3630,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3598,7 +3647,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3615,7 +3664,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3632,7 +3681,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3649,7 +3698,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3666,7 +3715,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3683,7 +3732,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3700,7 +3749,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3717,7 +3766,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3734,7 +3783,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3751,7 +3800,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3768,7 +3817,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3785,7 +3834,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3802,7 +3851,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3819,7 +3868,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3836,7 +3885,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3853,7 +3902,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3870,7 +3919,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3887,7 +3936,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3904,7 +3953,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3921,7 +3970,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3938,7 +3987,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3955,7 +4004,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3972,7 +4021,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3989,7 +4038,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4006,7 +4055,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4023,7 +4072,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4040,7 +4089,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4057,7 +4106,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4074,7 +4123,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4091,7 +4140,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4108,7 +4157,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4125,7 +4174,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4142,7 +4191,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4159,7 +4208,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4176,7 +4225,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4193,7 +4242,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4210,7 +4259,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4227,7 +4276,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4244,7 +4293,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4261,7 +4310,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4278,7 +4327,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4295,7 +4344,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4312,7 +4361,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4329,7 +4378,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4346,7 +4395,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
